--- a/banco_RAM.xlsx
+++ b/banco_RAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3 Fiocruz\RAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrojatoba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{D6E76BE0-E0D5-45EB-8CB8-F6827250B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA76C2B7-5BFB-4B67-94F4-24AF3FCF084A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316F390-D86C-754F-9335-B75850D851B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{99C4735C-280F-49E6-9BAA-B80C1D4DA6A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{99C4735C-280F-49E6-9BAA-B80C1D4DA6A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Tx de utilização UTI pediatria PAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Mediana consumo antimicrobiano Meropenem </t>
-  </si>
-  <si>
     <t>Consumo produtos higieme para as mãos UTI adulto - álcool</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>Consumo produtos higieme para as mãos UTI neo - álcool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de serviços notificantes UTI adulto </t>
   </si>
   <si>
     <t xml:space="preserve">Número de serviços notificantes UTI ped </t>
@@ -257,6 +251,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ensidade média de consumo/ 1000 pacientes/ dia</t>
     </r>
@@ -294,13 +289,19 @@
   </si>
   <si>
     <t>https://www.ipeadata.gov.br/ExibeSerieR.aspx?stub=1&amp;serid=2096726935&amp;MINDATA=2012&amp;MAXDATA=2025&amp;TNIVID=2&amp;TPAID=1&amp;module=S</t>
+  </si>
+  <si>
+    <t>Mediana consumo antimicrobiano Meropenem</t>
+  </si>
+  <si>
+    <t>Número de serviços notificantes UTI adulto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +328,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -962,60 +964,60 @@
   <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="21.5703125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" style="4"/>
+    <col min="3" max="3" width="21.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="22" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="4" customWidth="1"/>
-    <col min="11" max="12" width="21.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" style="4" customWidth="1"/>
-    <col min="14" max="17" width="22.42578125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="21.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="4" customWidth="1"/>
+    <col min="14" max="17" width="22.5" style="4" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="18.5" style="4" customWidth="1"/>
     <col min="24" max="24" width="14" style="4" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" style="4" customWidth="1"/>
-    <col min="26" max="33" width="15.140625" style="4" customWidth="1"/>
-    <col min="34" max="34" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.28515625" style="4" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" style="4" customWidth="1"/>
-    <col min="37" max="37" width="14.5703125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" style="4" customWidth="1"/>
+    <col min="26" max="33" width="15.1640625" style="4" customWidth="1"/>
+    <col min="34" max="34" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" style="4" customWidth="1"/>
+    <col min="37" max="37" width="14.5" style="4" customWidth="1"/>
     <col min="38" max="38" width="13" style="4" customWidth="1"/>
-    <col min="39" max="39" width="15.7109375" style="4" customWidth="1"/>
-    <col min="40" max="40" width="17.7109375" style="4" customWidth="1"/>
-    <col min="41" max="41" width="17.5703125" style="4" customWidth="1"/>
-    <col min="42" max="42" width="16.42578125" style="4" customWidth="1"/>
-    <col min="43" max="47" width="15.85546875" style="4" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" style="4" customWidth="1"/>
+    <col min="40" max="40" width="17.6640625" style="4" customWidth="1"/>
+    <col min="41" max="41" width="17.5" style="4" customWidth="1"/>
+    <col min="42" max="42" width="16.5" style="4" customWidth="1"/>
+    <col min="43" max="47" width="15.83203125" style="4" customWidth="1"/>
     <col min="48" max="48" width="14" style="4" customWidth="1"/>
     <col min="49" max="49" width="16" style="4" customWidth="1"/>
-    <col min="50" max="50" width="14.42578125" style="4" customWidth="1"/>
-    <col min="51" max="51" width="14.28515625" style="4" customWidth="1"/>
+    <col min="50" max="50" width="14.5" style="4" customWidth="1"/>
+    <col min="51" max="51" width="14.33203125" style="4" customWidth="1"/>
     <col min="52" max="52" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.28515625" style="4" customWidth="1"/>
-    <col min="54" max="54" width="9.42578125" style="4" customWidth="1"/>
-    <col min="55" max="55" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" style="4" customWidth="1"/>
-    <col min="57" max="57" width="9.140625" style="4"/>
-    <col min="58" max="58" width="11.5703125" style="4" customWidth="1"/>
-    <col min="59" max="59" width="12.85546875" style="4" customWidth="1"/>
-    <col min="60" max="60" width="13.42578125" style="4" customWidth="1"/>
-    <col min="61" max="16384" width="9.140625" style="4"/>
+    <col min="53" max="53" width="13.33203125" style="4" customWidth="1"/>
+    <col min="54" max="54" width="9.5" style="4" customWidth="1"/>
+    <col min="55" max="55" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.33203125" style="4" customWidth="1"/>
+    <col min="57" max="57" width="9.1640625" style="4"/>
+    <col min="58" max="58" width="11.5" style="4" customWidth="1"/>
+    <col min="59" max="59" width="12.83203125" style="4" customWidth="1"/>
+    <col min="60" max="60" width="13.5" style="4" customWidth="1"/>
+    <col min="61" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="3" customFormat="1" ht="75.75" customHeight="1">
+    <row r="1" spans="1:60" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,111 +1097,111 @@
         <v>25</v>
       </c>
       <c r="AA1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60">
-      <c r="A2" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="B2" s="4">
         <v>2012</v>
@@ -1346,9 +1348,9 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4">
         <v>2013</v>
@@ -1495,9 +1497,9 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4">
         <v>2014</v>
@@ -1644,9 +1646,9 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4">
         <v>2015</v>
@@ -1811,9 +1813,9 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4">
         <v>2016</v>
@@ -1984,9 +1986,9 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4">
         <v>2017</v>
@@ -2157,9 +2159,9 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4">
         <v>2018</v>
@@ -2333,9 +2335,9 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="4">
         <v>2019</v>
@@ -2515,9 +2517,9 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4">
         <v>2020</v>
@@ -2685,9 +2687,9 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4">
         <v>2021</v>
@@ -2855,9 +2857,9 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4">
         <v>2022</v>
@@ -3037,9 +3039,9 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4">
         <v>2023</v>
@@ -3219,9 +3221,9 @@
         <v>5145</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4">
         <v>2024</v>
@@ -3383,7 +3385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="G15" s="5"/>
     </row>
   </sheetData>
@@ -3400,99 +3402,99 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3508,11 +3510,11 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3525,26 +3527,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Data xmlns="7648d968-701a-47d1-a7d4-14ff7ae5b312" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7648d968-701a-47d1-a7d4-14ff7ae5b312">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003FFDD9898A00B24AA21C8FBF9F489FD9" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="aa876dc0db43ca2315ad0bd4bddb8883">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7648d968-701a-47d1-a7d4-14ff7ae5b312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c85f4f82862b2f1327aed6ec7dfd3841" ns2:_="">
     <xsd:import namespace="7648d968-701a-47d1-a7d4-14ff7ae5b312"/>
@@ -3714,14 +3696,58 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Data xmlns="7648d968-701a-47d1-a7d4-14ff7ae5b312" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7648d968-701a-47d1-a7d4-14ff7ae5b312">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0D254D-8F57-422B-8C46-E75DFF0AEF8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C5C693-CFF5-46DF-A7A8-D6E667F4E148}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7648d968-701a-47d1-a7d4-14ff7ae5b312"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBAF57B2-09FC-4A30-82F4-BCC7BBBE9328}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBAF57B2-09FC-4A30-82F4-BCC7BBBE9328}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C5C693-CFF5-46DF-A7A8-D6E667F4E148}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0D254D-8F57-422B-8C46-E75DFF0AEF8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7648d968-701a-47d1-a7d4-14ff7ae5b312"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>